--- a/pitcher_matchups_2025-08-22.xlsx
+++ b/pitcher_matchups_2025-08-22.xlsx
@@ -289,6 +289,12 @@
 Jesús Sánchez (RF)</t>
   </si>
   <si>
+    <t>Addison Barger (3B)
+Andrés Giménez (2B)
+Daulton Varsho (CF)
+Nathan Lukes (RF)</t>
+  </si>
+  <si>
     <t>Brandon Nimmo (LF)
 Brett Baty (3B)
 Cedric Mullins (CF)
@@ -307,13 +313,6 @@
 Owen Caissie (RF)
 Pete Crow-Armstrong (CF)
 Reese McGuire (C)</t>
-  </si>
-  <si>
-    <t>Cole Young (2B)
-Dominic Canzone (RF)
-J.P. Crawford (SS)
-Josh Naylor (1B)
-Luke Raley (RF)</t>
   </si>
   <si>
     <t>Alexander Canario (LF)
@@ -354,6 +353,9 @@
     <t>Victor Caratini (C)</t>
   </si>
   <si>
+    <t>Tyler Heineman (C)</t>
+  </si>
+  <si>
     <t>Francisco Lindor (SS)
 Ronny Mauricio (3B)</t>
   </si>
@@ -365,10 +367,6 @@
   <si>
     <t>Ian Happ (LF)
 Willi Castro (LF)</t>
-  </si>
-  <si>
-    <t>Cal Raleigh (C)
-Jorge Polanco (2B)</t>
   </si>
   <si>
     <t>Best Hitter/Pitcher Matchups for August 22, 2025</t>
@@ -882,7 +880,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
@@ -911,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,7 +932,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -949,7 +947,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -960,10 +958,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -975,10 +973,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -986,7 +984,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1001,7 +999,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -1027,10 +1025,10 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1038,7 +1036,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -1093,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1105,7 +1103,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1119,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1131,7 +1129,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -1142,10 +1140,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1186,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1194,7 +1192,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
@@ -1238,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1246,7 +1244,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
@@ -1374,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>9</v>
@@ -1397,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>82</v>
@@ -1431,59 +1429,59 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="G6" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>86</v>
@@ -1494,10 +1492,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
